--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Btc-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Btc-Egfr.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N2">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O2">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P2">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q2">
-        <v>0.6700418153733333</v>
+        <v>0.1318220377821111</v>
       </c>
       <c r="R2">
-        <v>6.03037633836</v>
+        <v>1.186398340039</v>
       </c>
       <c r="S2">
-        <v>0.01306639582592622</v>
+        <v>0.002607375069995422</v>
       </c>
       <c r="T2">
-        <v>0.01306639582592621</v>
+        <v>0.002607375069995421</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>305.694519</v>
       </c>
       <c r="O3">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P3">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q3">
         <v>32.74127559326433</v>
@@ -632,10 +632,10 @@
         <v>294.671480339379</v>
       </c>
       <c r="S3">
-        <v>0.6384832363170676</v>
+        <v>0.6476063272730862</v>
       </c>
       <c r="T3">
-        <v>0.6384832363170676</v>
+        <v>0.6476063272730862</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,25 +679,25 @@
         <v>14.921347</v>
       </c>
       <c r="N4">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q4">
-        <v>4.794432716175668</v>
+        <v>4.794432716175666</v>
       </c>
       <c r="R4">
         <v>43.149894445581</v>
       </c>
       <c r="S4">
-        <v>0.09349559116010814</v>
+        <v>0.09483152096002037</v>
       </c>
       <c r="T4">
-        <v>0.09349559116010811</v>
+        <v>0.09483152096002037</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N5">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O5">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P5">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q5">
-        <v>0.2292885801733333</v>
+        <v>0.04510955463544445</v>
       </c>
       <c r="R5">
-        <v>2.06359722156</v>
+        <v>0.405985991719</v>
       </c>
       <c r="S5">
-        <v>0.004471325935441949</v>
+        <v>0.0008922448033269254</v>
       </c>
       <c r="T5">
-        <v>0.004471325935441948</v>
+        <v>0.0008922448033269253</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,10 +806,10 @@
         <v>305.694519</v>
       </c>
       <c r="O6">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P6">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q6">
         <v>11.20407774798433</v>
@@ -818,10 +818,10 @@
         <v>100.836699731859</v>
       </c>
       <c r="S6">
-        <v>0.2184892216585707</v>
+        <v>0.2216111470729303</v>
       </c>
       <c r="T6">
-        <v>0.2184892216585706</v>
+        <v>0.2216111470729303</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -865,13 +865,13 @@
         <v>14.921347</v>
       </c>
       <c r="N7">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O7">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P7">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q7">
         <v>1.640656814255667</v>
@@ -880,10 +880,10 @@
         <v>14.765911328301</v>
       </c>
       <c r="S7">
-        <v>0.03199422910288537</v>
+        <v>0.03245138482064077</v>
       </c>
       <c r="T7">
-        <v>0.03199422910288537</v>
+        <v>0.03245138482064077</v>
       </c>
     </row>
   </sheetData>
